--- a/Data/Initial_Database.xlsx
+++ b/Data/Initial_Database.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhang\Documents\GitHub\Methane_Prediction\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry\Documents\GitHub\Methane_Prediction\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B99AC4E-4D63-492B-817C-1A08564175E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11715"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="2" r:id="rId1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="15">
   <si>
     <t>Paper_Title</t>
   </si>
@@ -55,18 +56,43 @@
   </si>
   <si>
     <t>Cumulative_seaonal_CH4_kgCH4ha</t>
+  </si>
+  <si>
+    <t>130-140</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M206</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">218-300 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Greenhouse gas emissions altered by the introduction of a year-long fallow to continuous rice systems</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1002/jeq2.70055</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -94,7 +120,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -371,22 +397,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" customWidth="1"/>
-    <col min="7" max="7" width="32.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.26953125" customWidth="1"/>
+    <col min="5" max="5" width="16.453125" customWidth="1"/>
+    <col min="6" max="6" width="15.26953125" customWidth="1"/>
+    <col min="7" max="7" width="32.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -412,23 +438,239 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2">
+        <v>2021</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3">
+        <v>2021</v>
+      </c>
+      <c r="G3">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4">
+        <v>2021</v>
+      </c>
+      <c r="G4">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5">
+        <v>2021</v>
+      </c>
+      <c r="G5">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6">
+        <v>2021</v>
+      </c>
+      <c r="G6">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7">
+        <v>2021</v>
+      </c>
+      <c r="G7">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8">
+        <v>2021</v>
+      </c>
+      <c r="G8">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>6000</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9">
+        <v>2021</v>
+      </c>
+      <c r="G9">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10">
+        <v>2021</v>
+      </c>
+      <c r="G10">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11">
+        <v>2021</v>
+      </c>
+      <c r="G11">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12">
+        <v>2021</v>
+      </c>
+      <c r="G12">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13">
+        <v>2021</v>
+      </c>
+      <c r="G13">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14">
+        <v>2021</v>
+      </c>
+      <c r="G14">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15">
+        <v>2021</v>
+      </c>
+      <c r="G15">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16">
+        <v>2021</v>
+      </c>
+      <c r="G16">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="18" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E18">
+        <v>2022</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.28515625" customWidth="1"/>
+    <col min="2" max="2" width="109.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -442,7 +684,19 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Data/Initial_Database.xlsx
+++ b/Data/Initial_Database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry\Documents\GitHub\Methane_Prediction\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B99AC4E-4D63-492B-817C-1A08564175E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90B4176E-7662-4291-B1C7-50E91EAF85E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="32">
   <si>
     <t>Paper_Title</t>
   </si>
@@ -43,9 +43,6 @@
     <t>Days_After_Flooding</t>
   </si>
   <si>
-    <t>Emission_g_CH4_ha_day</t>
-  </si>
-  <si>
     <t>Variety</t>
   </si>
   <si>
@@ -58,15 +55,7 @@
     <t>Cumulative_seaonal_CH4_kgCH4ha</t>
   </si>
   <si>
-    <t>130-140</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>M206</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">218-300 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -75,12 +64,83 @@
   <si>
     <t>https://doi.org/10.1002/jeq2.70055</t>
   </si>
+  <si>
+    <t>Seasonal Methane and Nitrous Oxide Emissions of Several Rice Cultivars in Direct-Seeded Systems</t>
+  </si>
+  <si>
+    <t>RES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M206</t>
+  </si>
+  <si>
+    <t>Emission_g_CH4_ha_day</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M105</t>
+  </si>
+  <si>
+    <t>M105</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M209</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Single midseason drainage events decrease global warming potential without sacrificing grain yield in flooded rice systems</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.fcr.2021.108312</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://doi.org/10.2134/jeq2014.07.0286</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mid-season drain severity impacts on rice yields, greenhouse gas emissions and heavy metal uptake in grain: evidence from on-farm studies</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.fcr.2024.109248</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pleasant Grove</t>
+  </si>
+  <si>
+    <t>Arbukle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Willows</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Marysville</t>
+  </si>
+  <si>
+    <t>Elverta</t>
+  </si>
+  <si>
+    <t>L206</t>
+  </si>
+  <si>
+    <t>L206</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M209</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,6 +154,34 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10.5"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Georgia"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -116,8 +204,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -398,47 +493,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G241"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="96" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.26953125" customWidth="1"/>
-    <col min="5" max="5" width="16.453125" customWidth="1"/>
-    <col min="6" max="6" width="15.26953125" customWidth="1"/>
-    <col min="7" max="7" width="32.7265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.25" customWidth="1"/>
+    <col min="5" max="5" width="16.5" customWidth="1"/>
+    <col min="6" max="6" width="15.25" customWidth="1"/>
+    <col min="7" max="7" width="32.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C1" t="s">
         <v>4</v>
       </c>
       <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -446,211 +541,4832 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.68750000000000699</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E2">
         <v>2021</v>
       </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2">
+        <v>72936.893200000006</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>4.8125</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E3">
         <v>2021</v>
       </c>
-      <c r="G3">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>14</v>
+        <v>11.6875</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E4">
         <v>2021</v>
       </c>
-      <c r="G4">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>1</v>
       </c>
+      <c r="B5">
+        <v>2548.5436893203801</v>
+      </c>
+      <c r="C5">
+        <v>18.5625</v>
+      </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E5">
         <v>2021</v>
       </c>
-      <c r="G5">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>1</v>
       </c>
+      <c r="B6">
+        <v>4368.9320388349497</v>
+      </c>
+      <c r="C6">
+        <v>26.125</v>
+      </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E6">
         <v>2021</v>
       </c>
-      <c r="G6">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1</v>
       </c>
+      <c r="B7" s="1">
+        <v>6796.1165048543598</v>
+      </c>
+      <c r="C7">
+        <v>32.999999999999901</v>
+      </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E7">
         <v>2021</v>
       </c>
-      <c r="G7">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1</v>
       </c>
+      <c r="B8" s="1">
+        <v>7766.9902912621301</v>
+      </c>
+      <c r="C8">
+        <v>39.875</v>
+      </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E8">
         <v>2021</v>
       </c>
-      <c r="G8">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B9">
-        <v>6000</v>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" s="1">
+        <v>7645.6310679611597</v>
+      </c>
+      <c r="C9">
+        <v>47.437499999999901</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E9">
         <v>2021</v>
       </c>
-      <c r="G9">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" s="1">
+        <v>6674.7572815533904</v>
+      </c>
+      <c r="C10">
+        <v>54.312499999999901</v>
+      </c>
       <c r="D10" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E10">
         <v>2021</v>
       </c>
-      <c r="G10">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" s="1">
+        <v>5946.60194174757</v>
+      </c>
+      <c r="C11">
+        <v>61.1875</v>
+      </c>
       <c r="D11" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E11">
         <v>2021</v>
       </c>
-      <c r="G11">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12" s="1">
+        <v>4368.9320388349497</v>
+      </c>
+      <c r="C12">
+        <v>68.0625</v>
+      </c>
       <c r="D12" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E12">
         <v>2021</v>
       </c>
-      <c r="G12">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13" s="1">
+        <v>4490.2912621359201</v>
+      </c>
+      <c r="C13">
+        <v>75.625</v>
+      </c>
       <c r="D13" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E13">
         <v>2021</v>
       </c>
-      <c r="G13">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14" s="1">
+        <v>4611.6504854368904</v>
+      </c>
+      <c r="C14">
+        <v>81.125</v>
+      </c>
       <c r="D14" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E14">
         <v>2021</v>
       </c>
-      <c r="G14">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15" s="1">
+        <v>3640.7766990291202</v>
+      </c>
+      <c r="C15">
+        <v>89.375</v>
+      </c>
       <c r="D15" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E15">
         <v>2021</v>
       </c>
-      <c r="G15">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C16" t="s">
-        <v>10</v>
+      <c r="F15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16" s="1">
+        <v>3276.69902912621</v>
+      </c>
+      <c r="C16">
+        <v>96.25</v>
       </c>
       <c r="D16" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E16">
         <v>2021</v>
       </c>
-      <c r="G16">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="18" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="F16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1699.02912621359</v>
+      </c>
+      <c r="C17">
+        <v>103.8125</v>
+      </c>
+      <c r="D17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17">
+        <v>2021</v>
+      </c>
+      <c r="F17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1334.95145631068</v>
+      </c>
+      <c r="C18">
+        <v>110.68749999999901</v>
+      </c>
+      <c r="D18" t="s">
+        <v>14</v>
+      </c>
       <c r="E18">
+        <v>2021</v>
+      </c>
+      <c r="F18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19" s="1">
+        <v>1213.5922330097001</v>
+      </c>
+      <c r="C19">
+        <v>116.875</v>
+      </c>
+      <c r="D19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19">
+        <v>2021</v>
+      </c>
+      <c r="F19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1577.66990291262</v>
+      </c>
+      <c r="C20">
+        <v>118.9375</v>
+      </c>
+      <c r="D20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20">
+        <v>2021</v>
+      </c>
+      <c r="F20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21" s="1">
+        <v>4733.0097087378599</v>
+      </c>
+      <c r="C21">
+        <v>123.0625</v>
+      </c>
+      <c r="D21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21">
+        <v>2021</v>
+      </c>
+      <c r="F21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22">
+        <v>242.71844660194199</v>
+      </c>
+      <c r="C22">
+        <v>127.18749999999901</v>
+      </c>
+      <c r="D22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22">
+        <v>2021</v>
+      </c>
+      <c r="F22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>3.42222222222223</v>
+      </c>
+      <c r="D23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23">
         <v>2022</v>
+      </c>
+      <c r="F23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23">
+        <v>61043.689319999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>5.47555555555555</v>
+      </c>
+      <c r="D24" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24">
+        <v>2022</v>
+      </c>
+      <c r="F24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>9.5822222222222209</v>
+      </c>
+      <c r="D25" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25">
+        <v>2022</v>
+      </c>
+      <c r="F25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26">
+        <v>849.51456310679305</v>
+      </c>
+      <c r="C26">
+        <v>16.426666666666598</v>
+      </c>
+      <c r="D26" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26">
+        <v>2022</v>
+      </c>
+      <c r="F26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27">
+        <v>1820.3883495145601</v>
+      </c>
+      <c r="C27">
+        <v>23.955555555555499</v>
+      </c>
+      <c r="D27" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27">
+        <v>2022</v>
+      </c>
+      <c r="F27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28">
+        <v>2912.6213592232998</v>
+      </c>
+      <c r="C28">
+        <v>30.8</v>
+      </c>
+      <c r="D28" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28">
+        <v>2022</v>
+      </c>
+      <c r="F28" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29">
+        <v>6067.9611650485404</v>
+      </c>
+      <c r="C29">
+        <v>33.537777777777698</v>
+      </c>
+      <c r="D29" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29">
+        <v>2022</v>
+      </c>
+      <c r="F29" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="B30">
+        <v>3640.7766990291202</v>
+      </c>
+      <c r="C30">
+        <v>40.382222222222197</v>
+      </c>
+      <c r="D30" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30">
+        <v>2022</v>
+      </c>
+      <c r="F30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31">
+        <v>3883.49514563106</v>
+      </c>
+      <c r="C31">
+        <v>47.226666666666603</v>
+      </c>
+      <c r="D31" t="s">
+        <v>14</v>
+      </c>
+      <c r="E31">
+        <v>2022</v>
+      </c>
+      <c r="F31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32">
+        <v>3883.49514563106</v>
+      </c>
+      <c r="C32">
+        <v>54.755555555555503</v>
+      </c>
+      <c r="D32" t="s">
+        <v>14</v>
+      </c>
+      <c r="E32">
+        <v>2022</v>
+      </c>
+      <c r="F32" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="B33">
+        <v>4247.5728155339802</v>
+      </c>
+      <c r="C33">
+        <v>61.6</v>
+      </c>
+      <c r="D33" t="s">
+        <v>14</v>
+      </c>
+      <c r="E33">
+        <v>2022</v>
+      </c>
+      <c r="F33" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="B34">
+        <v>4975.7281553397997</v>
+      </c>
+      <c r="C34">
+        <v>69.128888888888795</v>
+      </c>
+      <c r="D34" t="s">
+        <v>14</v>
+      </c>
+      <c r="E34">
+        <v>2022</v>
+      </c>
+      <c r="F34" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A35">
+        <v>1</v>
+      </c>
+      <c r="B35">
+        <v>5339.8058252427199</v>
+      </c>
+      <c r="C35">
+        <v>75.973333333333301</v>
+      </c>
+      <c r="D35" t="s">
+        <v>14</v>
+      </c>
+      <c r="E35">
+        <v>2022</v>
+      </c>
+      <c r="F35" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A36">
+        <v>1</v>
+      </c>
+      <c r="B36">
+        <v>4004.85436893204</v>
+      </c>
+      <c r="C36">
+        <v>82.817777777777707</v>
+      </c>
+      <c r="D36" t="s">
+        <v>14</v>
+      </c>
+      <c r="E36">
+        <v>2022</v>
+      </c>
+      <c r="F36" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A37">
+        <v>1</v>
+      </c>
+      <c r="B37">
+        <v>5097.0873786407701</v>
+      </c>
+      <c r="C37">
+        <v>89.662222222222198</v>
+      </c>
+      <c r="D37" t="s">
+        <v>14</v>
+      </c>
+      <c r="E37">
+        <v>2022</v>
+      </c>
+      <c r="F37" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A38">
+        <v>1</v>
+      </c>
+      <c r="B38">
+        <v>3883.49514563106</v>
+      </c>
+      <c r="C38">
+        <v>95.822222222222194</v>
+      </c>
+      <c r="D38" t="s">
+        <v>14</v>
+      </c>
+      <c r="E38">
+        <v>2022</v>
+      </c>
+      <c r="F38" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A39">
+        <v>1</v>
+      </c>
+      <c r="B39">
+        <v>2669.90291262135</v>
+      </c>
+      <c r="C39">
+        <v>104.03555555555501</v>
+      </c>
+      <c r="D39" t="s">
+        <v>14</v>
+      </c>
+      <c r="E39">
+        <v>2022</v>
+      </c>
+      <c r="F39" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="B40">
+        <v>2427.1844660194101</v>
+      </c>
+      <c r="C40">
+        <v>110.88</v>
+      </c>
+      <c r="D40" t="s">
+        <v>14</v>
+      </c>
+      <c r="E40">
+        <v>2022</v>
+      </c>
+      <c r="F40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A41">
+        <v>1</v>
+      </c>
+      <c r="B41">
+        <v>1456.3106796116399</v>
+      </c>
+      <c r="C41">
+        <v>118.408888888888</v>
+      </c>
+      <c r="D41" t="s">
+        <v>14</v>
+      </c>
+      <c r="E41">
+        <v>2022</v>
+      </c>
+      <c r="F41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A42">
+        <v>1</v>
+      </c>
+      <c r="B42">
+        <v>1213.5922330097001</v>
+      </c>
+      <c r="C42">
+        <v>121.14666666666599</v>
+      </c>
+      <c r="D42" t="s">
+        <v>14</v>
+      </c>
+      <c r="E42">
+        <v>2022</v>
+      </c>
+      <c r="F42" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A43">
+        <v>1</v>
+      </c>
+      <c r="B43">
+        <v>2548.5436893203801</v>
+      </c>
+      <c r="C43">
+        <v>125.253333333333</v>
+      </c>
+      <c r="D43" t="s">
+        <v>14</v>
+      </c>
+      <c r="E43">
+        <v>2022</v>
+      </c>
+      <c r="F43" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A44">
+        <v>1</v>
+      </c>
+      <c r="B44">
+        <v>121.35922330096901</v>
+      </c>
+      <c r="C44">
+        <v>129.36000000000001</v>
+      </c>
+      <c r="D44" t="s">
+        <v>14</v>
+      </c>
+      <c r="E44">
+        <v>2022</v>
+      </c>
+      <c r="F44" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A45">
+        <v>1</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <v>3.1216216216216202</v>
+      </c>
+      <c r="D45" t="s">
+        <v>14</v>
+      </c>
+      <c r="E45">
+        <v>2023</v>
+      </c>
+      <c r="F45" t="s">
+        <v>13</v>
+      </c>
+      <c r="G45">
+        <v>77941.176470000006</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A46">
+        <v>1</v>
+      </c>
+      <c r="B46">
+        <v>919.11764705882501</v>
+      </c>
+      <c r="C46">
+        <v>10.4054054054054</v>
+      </c>
+      <c r="D46" t="s">
+        <v>14</v>
+      </c>
+      <c r="E46">
+        <v>2023</v>
+      </c>
+      <c r="F46" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A47">
+        <v>1</v>
+      </c>
+      <c r="B47">
+        <v>5698.5294117646899</v>
+      </c>
+      <c r="C47">
+        <v>17.689189189189101</v>
+      </c>
+      <c r="D47" t="s">
+        <v>14</v>
+      </c>
+      <c r="E47">
+        <v>2023</v>
+      </c>
+      <c r="F47" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A48">
+        <v>1</v>
+      </c>
+      <c r="B48">
+        <v>6250</v>
+      </c>
+      <c r="C48">
+        <v>24.972972972972901</v>
+      </c>
+      <c r="D48" t="s">
+        <v>14</v>
+      </c>
+      <c r="E48">
+        <v>2023</v>
+      </c>
+      <c r="F48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A49">
+        <v>1</v>
+      </c>
+      <c r="B49">
+        <v>6801.4705882352901</v>
+      </c>
+      <c r="C49">
+        <v>31.2162162162162</v>
+      </c>
+      <c r="D49" t="s">
+        <v>14</v>
+      </c>
+      <c r="E49">
+        <v>2023</v>
+      </c>
+      <c r="F49" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A50">
+        <v>1</v>
+      </c>
+      <c r="B50">
+        <v>4595.5882352941098</v>
+      </c>
+      <c r="C50">
+        <v>38.5</v>
+      </c>
+      <c r="D50" t="s">
+        <v>14</v>
+      </c>
+      <c r="E50">
+        <v>2023</v>
+      </c>
+      <c r="F50" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A51">
+        <v>1</v>
+      </c>
+      <c r="B51">
+        <v>2573.5294117647099</v>
+      </c>
+      <c r="C51">
+        <v>45.783783783783697</v>
+      </c>
+      <c r="D51" t="s">
+        <v>14</v>
+      </c>
+      <c r="E51">
+        <v>2023</v>
+      </c>
+      <c r="F51" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A52">
+        <v>1</v>
+      </c>
+      <c r="B52">
+        <v>7169.1176470588198</v>
+      </c>
+      <c r="C52">
+        <v>53.067567567567501</v>
+      </c>
+      <c r="D52" t="s">
+        <v>14</v>
+      </c>
+      <c r="E52">
+        <v>2023</v>
+      </c>
+      <c r="F52" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A53">
+        <v>1</v>
+      </c>
+      <c r="B53">
+        <v>6801.4705882352901</v>
+      </c>
+      <c r="C53">
+        <v>60.351351351351298</v>
+      </c>
+      <c r="D53" t="s">
+        <v>14</v>
+      </c>
+      <c r="E53">
+        <v>2023</v>
+      </c>
+      <c r="F53" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A54">
+        <v>1</v>
+      </c>
+      <c r="B54">
+        <v>8272.0588235294108</v>
+      </c>
+      <c r="C54">
+        <v>73.878378378378301</v>
+      </c>
+      <c r="D54" t="s">
+        <v>14</v>
+      </c>
+      <c r="E54">
+        <v>2023</v>
+      </c>
+      <c r="F54" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A55">
+        <v>1</v>
+      </c>
+      <c r="B55">
+        <v>6617.6470588235297</v>
+      </c>
+      <c r="C55">
+        <v>81.162162162162105</v>
+      </c>
+      <c r="D55" t="s">
+        <v>14</v>
+      </c>
+      <c r="E55">
+        <v>2023</v>
+      </c>
+      <c r="F55" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A56">
+        <v>1</v>
+      </c>
+      <c r="B56">
+        <v>7352.9411764705801</v>
+      </c>
+      <c r="C56">
+        <v>88.445945945945894</v>
+      </c>
+      <c r="D56" t="s">
+        <v>14</v>
+      </c>
+      <c r="E56">
+        <v>2023</v>
+      </c>
+      <c r="F56" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A57">
+        <v>1</v>
+      </c>
+      <c r="B57">
+        <v>3492.6470588235202</v>
+      </c>
+      <c r="C57">
+        <v>94.689189189189193</v>
+      </c>
+      <c r="D57" t="s">
+        <v>14</v>
+      </c>
+      <c r="E57">
+        <v>2023</v>
+      </c>
+      <c r="F57" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A58">
+        <v>1</v>
+      </c>
+      <c r="B58">
+        <v>2573.5294117647099</v>
+      </c>
+      <c r="C58">
+        <v>105.094594594594</v>
+      </c>
+      <c r="D58" t="s">
+        <v>14</v>
+      </c>
+      <c r="E58">
+        <v>2023</v>
+      </c>
+      <c r="F58" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A59">
+        <v>1</v>
+      </c>
+      <c r="B59">
+        <v>4779.4117647058802</v>
+      </c>
+      <c r="C59">
+        <v>109.256756756756</v>
+      </c>
+      <c r="D59" t="s">
+        <v>14</v>
+      </c>
+      <c r="E59">
+        <v>2023</v>
+      </c>
+      <c r="F59" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A60">
+        <v>1</v>
+      </c>
+      <c r="B60">
+        <v>3676.47058823528</v>
+      </c>
+      <c r="C60">
+        <v>111.337837837837</v>
+      </c>
+      <c r="D60" t="s">
+        <v>14</v>
+      </c>
+      <c r="E60">
+        <v>2023</v>
+      </c>
+      <c r="F60" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A61">
+        <v>1</v>
+      </c>
+      <c r="B61">
+        <v>367.64705882352399</v>
+      </c>
+      <c r="C61">
+        <v>113.418918918918</v>
+      </c>
+      <c r="D61" t="s">
+        <v>14</v>
+      </c>
+      <c r="E61">
+        <v>2023</v>
+      </c>
+      <c r="F61" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A62">
+        <v>1</v>
+      </c>
+      <c r="B62">
+        <v>40.650406504066197</v>
+      </c>
+      <c r="C62">
+        <v>3.2851985559566699</v>
+      </c>
+      <c r="D62" t="s">
+        <v>14</v>
+      </c>
+      <c r="E62">
+        <v>2017</v>
+      </c>
+      <c r="F62" t="s">
+        <v>13</v>
+      </c>
+      <c r="G62">
+        <v>50609.756099999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A63">
+        <v>1</v>
+      </c>
+      <c r="B63">
+        <v>1016.26016260162</v>
+      </c>
+      <c r="C63">
+        <v>13.140794223826701</v>
+      </c>
+      <c r="D63" t="s">
+        <v>14</v>
+      </c>
+      <c r="E63">
+        <v>2017</v>
+      </c>
+      <c r="F63" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A64">
+        <v>1</v>
+      </c>
+      <c r="B64">
+        <v>1991.8699186991801</v>
+      </c>
+      <c r="C64">
+        <v>17.184115523465699</v>
+      </c>
+      <c r="D64" t="s">
+        <v>14</v>
+      </c>
+      <c r="E64">
+        <v>2017</v>
+      </c>
+      <c r="F64" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A65">
+        <v>1</v>
+      </c>
+      <c r="B65">
+        <v>2642.2764227642201</v>
+      </c>
+      <c r="C65">
+        <v>24.007220216606399</v>
+      </c>
+      <c r="D65" t="s">
+        <v>14</v>
+      </c>
+      <c r="E65">
+        <v>2017</v>
+      </c>
+      <c r="F65" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A66">
+        <v>1</v>
+      </c>
+      <c r="B66">
+        <v>4756.0975609756097</v>
+      </c>
+      <c r="C66">
+        <v>34.115523465703902</v>
+      </c>
+      <c r="D66" t="s">
+        <v>14</v>
+      </c>
+      <c r="E66">
+        <v>2017</v>
+      </c>
+      <c r="F66" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A67">
+        <v>1</v>
+      </c>
+      <c r="B67">
+        <v>3008.1300813008102</v>
+      </c>
+      <c r="C67">
+        <v>34.873646209386202</v>
+      </c>
+      <c r="D67" t="s">
+        <v>14</v>
+      </c>
+      <c r="E67">
+        <v>2017</v>
+      </c>
+      <c r="F67" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A68">
+        <v>1</v>
+      </c>
+      <c r="B68">
+        <v>3699.1869918699099</v>
+      </c>
+      <c r="C68">
+        <v>37.148014440433201</v>
+      </c>
+      <c r="D68" t="s">
+        <v>14</v>
+      </c>
+      <c r="E68">
+        <v>2017</v>
+      </c>
+      <c r="F68" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A69">
+        <v>1</v>
+      </c>
+      <c r="B69">
+        <v>3170.7317073170698</v>
+      </c>
+      <c r="C69">
+        <v>38.158844765342899</v>
+      </c>
+      <c r="D69" t="s">
+        <v>14</v>
+      </c>
+      <c r="E69">
+        <v>2017</v>
+      </c>
+      <c r="F69" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A70">
+        <v>1</v>
+      </c>
+      <c r="B70">
+        <v>3373.9837398373902</v>
+      </c>
+      <c r="C70">
+        <v>40.180505415162401</v>
+      </c>
+      <c r="D70" t="s">
+        <v>14</v>
+      </c>
+      <c r="E70">
+        <v>2017</v>
+      </c>
+      <c r="F70" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A71">
+        <v>1</v>
+      </c>
+      <c r="B71">
+        <v>4390.2439024390196</v>
+      </c>
+      <c r="C71">
+        <v>41.191335740072198</v>
+      </c>
+      <c r="D71" t="s">
+        <v>14</v>
+      </c>
+      <c r="E71">
+        <v>2017</v>
+      </c>
+      <c r="F71" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A72">
+        <v>1</v>
+      </c>
+      <c r="B72">
+        <v>2967.4796747967498</v>
+      </c>
+      <c r="C72">
+        <v>43.971119133574</v>
+      </c>
+      <c r="D72" t="s">
+        <v>14</v>
+      </c>
+      <c r="E72">
+        <v>2017</v>
+      </c>
+      <c r="F72" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A73">
+        <v>1</v>
+      </c>
+      <c r="B73">
+        <v>2479.67479674796</v>
+      </c>
+      <c r="C73">
+        <v>44.981949458483697</v>
+      </c>
+      <c r="D73" t="s">
+        <v>14</v>
+      </c>
+      <c r="E73">
+        <v>2017</v>
+      </c>
+      <c r="F73" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A74">
+        <v>1</v>
+      </c>
+      <c r="B74">
+        <v>2560.9756097560899</v>
+      </c>
+      <c r="C74">
+        <v>45.992779783393502</v>
+      </c>
+      <c r="D74" t="s">
+        <v>14</v>
+      </c>
+      <c r="E74">
+        <v>2017</v>
+      </c>
+      <c r="F74" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A75">
+        <v>1</v>
+      </c>
+      <c r="B75">
+        <v>2235.7723577235702</v>
+      </c>
+      <c r="C75">
+        <v>53.068592057761698</v>
+      </c>
+      <c r="D75" t="s">
+        <v>14</v>
+      </c>
+      <c r="E75">
+        <v>2017</v>
+      </c>
+      <c r="F75" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A76">
+        <v>1</v>
+      </c>
+      <c r="B76">
+        <v>2398.3739837398298</v>
+      </c>
+      <c r="C76">
+        <v>60.144404332129902</v>
+      </c>
+      <c r="D76" t="s">
+        <v>14</v>
+      </c>
+      <c r="E76">
+        <v>2017</v>
+      </c>
+      <c r="F76" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A77">
+        <v>1</v>
+      </c>
+      <c r="B77">
+        <v>2439.0243902439001</v>
+      </c>
+      <c r="C77">
+        <v>67.220216606498198</v>
+      </c>
+      <c r="D77" t="s">
+        <v>14</v>
+      </c>
+      <c r="E77">
+        <v>2017</v>
+      </c>
+      <c r="F77" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A78">
+        <v>1</v>
+      </c>
+      <c r="B78">
+        <v>1382.1138211382099</v>
+      </c>
+      <c r="C78">
+        <v>74.043321299638905</v>
+      </c>
+      <c r="D78" t="s">
+        <v>14</v>
+      </c>
+      <c r="E78">
+        <v>2017</v>
+      </c>
+      <c r="F78" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A79">
+        <v>1</v>
+      </c>
+      <c r="B79">
+        <v>1544.71544715447</v>
+      </c>
+      <c r="C79">
+        <v>81.119133574007193</v>
+      </c>
+      <c r="D79" t="s">
+        <v>14</v>
+      </c>
+      <c r="E79">
+        <v>2017</v>
+      </c>
+      <c r="F79" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A80">
+        <v>1</v>
+      </c>
+      <c r="B80">
+        <v>1585.3658536585301</v>
+      </c>
+      <c r="C80">
+        <v>85.920577617328505</v>
+      </c>
+      <c r="D80" t="s">
+        <v>14</v>
+      </c>
+      <c r="E80">
+        <v>2017</v>
+      </c>
+      <c r="F80" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A81">
+        <v>1</v>
+      </c>
+      <c r="B81">
+        <v>1382.1138211382099</v>
+      </c>
+      <c r="C81">
+        <v>95.018050541516203</v>
+      </c>
+      <c r="D81" t="s">
+        <v>14</v>
+      </c>
+      <c r="E81">
+        <v>2017</v>
+      </c>
+      <c r="F81" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A82">
+        <v>1</v>
+      </c>
+      <c r="B82">
+        <v>650.40650406504199</v>
+      </c>
+      <c r="C82">
+        <v>102.09386281588399</v>
+      </c>
+      <c r="D82" t="s">
+        <v>14</v>
+      </c>
+      <c r="E82">
+        <v>2017</v>
+      </c>
+      <c r="F82" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A83">
+        <v>1</v>
+      </c>
+      <c r="B83">
+        <v>569.10569105691104</v>
+      </c>
+      <c r="C83">
+        <v>106.89530685920499</v>
+      </c>
+      <c r="D83" t="s">
+        <v>14</v>
+      </c>
+      <c r="E83">
+        <v>2017</v>
+      </c>
+      <c r="F83" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A84">
+        <v>1</v>
+      </c>
+      <c r="B84">
+        <v>325.20325203252202</v>
+      </c>
+      <c r="C84">
+        <v>109.169675090252</v>
+      </c>
+      <c r="D84" t="s">
+        <v>14</v>
+      </c>
+      <c r="E84">
+        <v>2017</v>
+      </c>
+      <c r="F84" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A85">
+        <v>1</v>
+      </c>
+      <c r="B85">
+        <v>0.74280408542199405</v>
+      </c>
+      <c r="C85">
+        <v>6.3950617283950599</v>
+      </c>
+      <c r="D85" t="s">
+        <v>14</v>
+      </c>
+      <c r="E85">
+        <v>2018</v>
+      </c>
+      <c r="F85" t="s">
+        <v>13</v>
+      </c>
+      <c r="G85">
+        <v>39164.4692</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A86">
+        <v>1</v>
+      </c>
+      <c r="B86">
+        <v>51.562983596411797</v>
+      </c>
+      <c r="C86">
+        <v>12.0987654320987</v>
+      </c>
+      <c r="D86" t="s">
+        <v>14</v>
+      </c>
+      <c r="E86">
+        <v>2018</v>
+      </c>
+      <c r="F86" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A87">
+        <v>1</v>
+      </c>
+      <c r="B87">
+        <v>286.26844114309199</v>
+      </c>
+      <c r="C87">
+        <v>18.148148148148099</v>
+      </c>
+      <c r="D87" t="s">
+        <v>14</v>
+      </c>
+      <c r="E87">
+        <v>2018</v>
+      </c>
+      <c r="F87" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A88">
+        <v>1</v>
+      </c>
+      <c r="B88">
+        <v>738.51232848447398</v>
+      </c>
+      <c r="C88">
+        <v>26.4444444444444</v>
+      </c>
+      <c r="D88" t="s">
+        <v>14</v>
+      </c>
+      <c r="E88">
+        <v>2018</v>
+      </c>
+      <c r="F88" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A89">
+        <v>1</v>
+      </c>
+      <c r="B89">
+        <v>922.91344269060198</v>
+      </c>
+      <c r="C89">
+        <v>31.1111111111111</v>
+      </c>
+      <c r="D89" t="s">
+        <v>14</v>
+      </c>
+      <c r="E89">
+        <v>2018</v>
+      </c>
+      <c r="F89" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A90">
+        <v>1</v>
+      </c>
+      <c r="B90">
+        <v>2394.5321365934101</v>
+      </c>
+      <c r="C90">
+        <v>38.370370370370303</v>
+      </c>
+      <c r="D90" t="s">
+        <v>14</v>
+      </c>
+      <c r="E90">
+        <v>2018</v>
+      </c>
+      <c r="F90" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A91">
+        <v>1</v>
+      </c>
+      <c r="B91">
+        <v>1926.6687300113399</v>
+      </c>
+      <c r="C91">
+        <v>39.234567901234499</v>
+      </c>
+      <c r="D91" t="s">
+        <v>14</v>
+      </c>
+      <c r="E91">
+        <v>2018</v>
+      </c>
+      <c r="F91" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A92">
+        <v>1</v>
+      </c>
+      <c r="B92">
+        <v>2277.8912617352698</v>
+      </c>
+      <c r="C92">
+        <v>41.308641975308603</v>
+      </c>
+      <c r="D92" t="s">
+        <v>14</v>
+      </c>
+      <c r="E92">
+        <v>2018</v>
+      </c>
+      <c r="F92" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A93">
+        <v>1</v>
+      </c>
+      <c r="B93">
+        <v>2295.0789229340699</v>
+      </c>
+      <c r="C93">
+        <v>45.283950617283899</v>
+      </c>
+      <c r="D93" t="s">
+        <v>14</v>
+      </c>
+      <c r="E93">
+        <v>2018</v>
+      </c>
+      <c r="F93" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A94">
+        <v>1</v>
+      </c>
+      <c r="B94">
+        <v>2161.6011554730198</v>
+      </c>
+      <c r="C94">
+        <v>47.185185185185098</v>
+      </c>
+      <c r="D94" t="s">
+        <v>14</v>
+      </c>
+      <c r="E94">
+        <v>2018</v>
+      </c>
+      <c r="F94" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A95">
+        <v>1</v>
+      </c>
+      <c r="B95">
+        <v>2111.6063138347199</v>
+      </c>
+      <c r="C95">
+        <v>48.395061728395</v>
+      </c>
+      <c r="D95" t="s">
+        <v>14</v>
+      </c>
+      <c r="E95">
+        <v>2018</v>
+      </c>
+      <c r="F95" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A96">
+        <v>1</v>
+      </c>
+      <c r="B96">
+        <v>2546.2292375941302</v>
+      </c>
+      <c r="C96">
+        <v>49.086419753086403</v>
+      </c>
+      <c r="D96" t="s">
+        <v>14</v>
+      </c>
+      <c r="E96">
+        <v>2018</v>
+      </c>
+      <c r="F96" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A97">
+        <v>1</v>
+      </c>
+      <c r="B97">
+        <v>2646.8998246156998</v>
+      </c>
+      <c r="C97">
+        <v>52.370370370370303</v>
+      </c>
+      <c r="D97" t="s">
+        <v>14</v>
+      </c>
+      <c r="E97">
+        <v>2018</v>
+      </c>
+      <c r="F97" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A98">
+        <v>1</v>
+      </c>
+      <c r="B98">
+        <v>3282.2036521200798</v>
+      </c>
+      <c r="C98">
+        <v>54.098765432098702</v>
+      </c>
+      <c r="D98" t="s">
+        <v>14</v>
+      </c>
+      <c r="E98">
+        <v>2018</v>
+      </c>
+      <c r="F98" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A99">
+        <v>1</v>
+      </c>
+      <c r="B99">
+        <v>3901.1864231919899</v>
+      </c>
+      <c r="C99">
+        <v>59.1111111111111</v>
+      </c>
+      <c r="D99" t="s">
+        <v>14</v>
+      </c>
+      <c r="E99">
+        <v>2018</v>
+      </c>
+      <c r="F99" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A100">
+        <v>1</v>
+      </c>
+      <c r="B100">
+        <v>2263.4478489631701</v>
+      </c>
+      <c r="C100">
+        <v>60.320987654320902</v>
+      </c>
+      <c r="D100" t="s">
+        <v>14</v>
+      </c>
+      <c r="E100">
+        <v>2018</v>
+      </c>
+      <c r="F100" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A101">
+        <v>1</v>
+      </c>
+      <c r="B101">
+        <v>2130.5684514598101</v>
+      </c>
+      <c r="C101">
+        <v>67.234567901234499</v>
+      </c>
+      <c r="D101" t="s">
+        <v>14</v>
+      </c>
+      <c r="E101">
+        <v>2018</v>
+      </c>
+      <c r="F101" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A102">
+        <v>1</v>
+      </c>
+      <c r="B102">
+        <v>1028.45352316104</v>
+      </c>
+      <c r="C102">
+        <v>75.185185185185105</v>
+      </c>
+      <c r="D102" t="s">
+        <v>14</v>
+      </c>
+      <c r="E102">
+        <v>2018</v>
+      </c>
+      <c r="F102" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A103">
+        <v>1</v>
+      </c>
+      <c r="B103">
+        <v>1647.6838955947501</v>
+      </c>
+      <c r="C103">
+        <v>82.271604938271594</v>
+      </c>
+      <c r="D103" t="s">
+        <v>14</v>
+      </c>
+      <c r="E103">
+        <v>2018</v>
+      </c>
+      <c r="F103" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A104">
+        <v>1</v>
+      </c>
+      <c r="B104">
+        <v>1147.2402764881799</v>
+      </c>
+      <c r="C104">
+        <v>90.2222222222222</v>
+      </c>
+      <c r="D104" t="s">
+        <v>14</v>
+      </c>
+      <c r="E104">
+        <v>2018</v>
+      </c>
+      <c r="F104" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A105">
+        <v>1</v>
+      </c>
+      <c r="B105">
+        <v>61.7146394305191</v>
+      </c>
+      <c r="C105">
+        <v>97.135802469135797</v>
+      </c>
+      <c r="D105" t="s">
+        <v>14</v>
+      </c>
+      <c r="E105">
+        <v>2018</v>
+      </c>
+      <c r="F105" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A106">
+        <v>1</v>
+      </c>
+      <c r="B106">
+        <v>714.37119570824404</v>
+      </c>
+      <c r="C106">
+        <v>104.222222222222</v>
+      </c>
+      <c r="D106" t="s">
+        <v>14</v>
+      </c>
+      <c r="E106">
+        <v>2018</v>
+      </c>
+      <c r="F106" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A107">
+        <v>1</v>
+      </c>
+      <c r="B107">
+        <v>381.05849582172698</v>
+      </c>
+      <c r="C107">
+        <v>112.172839506172</v>
+      </c>
+      <c r="D107" t="s">
+        <v>14</v>
+      </c>
+      <c r="E107">
+        <v>2018</v>
+      </c>
+      <c r="F107" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A108">
+        <v>1</v>
+      </c>
+      <c r="B108">
+        <v>364.69617249561497</v>
+      </c>
+      <c r="C108">
+        <v>115.111111111111</v>
+      </c>
+      <c r="D108" t="s">
+        <v>14</v>
+      </c>
+      <c r="E108">
+        <v>2018</v>
+      </c>
+      <c r="F108" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A109">
+        <v>1</v>
+      </c>
+      <c r="B109">
+        <v>348.23068193541798</v>
+      </c>
+      <c r="C109">
+        <v>117.18518518518501</v>
+      </c>
+      <c r="D109" t="s">
+        <v>14</v>
+      </c>
+      <c r="E109">
+        <v>2018</v>
+      </c>
+      <c r="F109" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A110">
+        <v>1</v>
+      </c>
+      <c r="B110">
+        <v>1518.41535128443</v>
+      </c>
+      <c r="C110">
+        <v>119.432098765432</v>
+      </c>
+      <c r="D110" t="s">
+        <v>14</v>
+      </c>
+      <c r="E110">
+        <v>2018</v>
+      </c>
+      <c r="F110" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A111">
+        <v>1</v>
+      </c>
+      <c r="B111">
+        <v>14.691014133911199</v>
+      </c>
+      <c r="C111">
+        <v>123.234567901234</v>
+      </c>
+      <c r="D111" t="s">
+        <v>14</v>
+      </c>
+      <c r="E111">
+        <v>2018</v>
+      </c>
+      <c r="F111" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>1</v>
+      </c>
+      <c r="B112">
+        <v>2892.6230836628001</v>
+      </c>
+      <c r="C112">
+        <v>4.9301252190264497</v>
+      </c>
+      <c r="D112" t="s">
+        <v>17</v>
+      </c>
+      <c r="E112">
+        <v>2017</v>
+      </c>
+      <c r="F112" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G112">
+        <v>63081.962800000001</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>1</v>
+      </c>
+      <c r="B113">
+        <v>334.81649605264101</v>
+      </c>
+      <c r="C113">
+        <v>18.093080900893199</v>
+      </c>
+      <c r="D113" t="s">
+        <v>17</v>
+      </c>
+      <c r="E113">
+        <v>2017</v>
+      </c>
+      <c r="F113" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>1</v>
+      </c>
+      <c r="B114">
+        <v>2696.8962733568501</v>
+      </c>
+      <c r="C114">
+        <v>32.901406042993202</v>
+      </c>
+      <c r="D114" t="s">
+        <v>16</v>
+      </c>
+      <c r="E114">
+        <v>2017</v>
+      </c>
+      <c r="F114" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>1</v>
+      </c>
+      <c r="B115">
+        <v>1966.0119954459699</v>
+      </c>
+      <c r="C115">
+        <v>36.042565921620501</v>
+      </c>
+      <c r="D115" t="s">
+        <v>16</v>
+      </c>
+      <c r="E115">
+        <v>2017</v>
+      </c>
+      <c r="F115" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>1</v>
+      </c>
+      <c r="B116">
+        <v>2896.9985813963899</v>
+      </c>
+      <c r="C116">
+        <v>37.8375144236933</v>
+      </c>
+      <c r="D116" t="s">
+        <v>16</v>
+      </c>
+      <c r="E116">
+        <v>2017</v>
+      </c>
+      <c r="F116" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>1</v>
+      </c>
+      <c r="B117">
+        <v>1733.86200774022</v>
+      </c>
+      <c r="C117">
+        <v>40.081200051284199</v>
+      </c>
+      <c r="D117" t="s">
+        <v>16</v>
+      </c>
+      <c r="E117">
+        <v>2017</v>
+      </c>
+      <c r="F117" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>1</v>
+      </c>
+      <c r="B118">
+        <v>2930.7765715299702</v>
+      </c>
+      <c r="C118">
+        <v>41.876148553356899</v>
+      </c>
+      <c r="D118" t="s">
+        <v>16</v>
+      </c>
+      <c r="E118">
+        <v>2017</v>
+      </c>
+      <c r="F118" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>1</v>
+      </c>
+      <c r="B119">
+        <v>1634.51689994564</v>
+      </c>
+      <c r="C119">
+        <v>42.923201846232701</v>
+      </c>
+      <c r="D119" t="s">
+        <v>16</v>
+      </c>
+      <c r="E119">
+        <v>2017</v>
+      </c>
+      <c r="F119" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>1</v>
+      </c>
+      <c r="B120">
+        <v>2699.0442449715201</v>
+      </c>
+      <c r="C120">
+        <v>49.055942561647903</v>
+      </c>
+      <c r="D120" t="s">
+        <v>16</v>
+      </c>
+      <c r="E120">
+        <v>2017</v>
+      </c>
+      <c r="F120" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>1</v>
+      </c>
+      <c r="B121">
+        <v>2367.4099290887598</v>
+      </c>
+      <c r="C121">
+        <v>54.889525193384301</v>
+      </c>
+      <c r="D121" t="s">
+        <v>16</v>
+      </c>
+      <c r="E121">
+        <v>2017</v>
+      </c>
+      <c r="F121" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>1</v>
+      </c>
+      <c r="B122">
+        <v>4761.7163836937398</v>
+      </c>
+      <c r="C122">
+        <v>62.069319201675199</v>
+      </c>
+      <c r="D122" t="s">
+        <v>16</v>
+      </c>
+      <c r="E122">
+        <v>2017</v>
+      </c>
+      <c r="F122" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>1</v>
+      </c>
+      <c r="B123">
+        <v>5361.1084310135102</v>
+      </c>
+      <c r="C123">
+        <v>69.997008419163194</v>
+      </c>
+      <c r="D123" t="s">
+        <v>16</v>
+      </c>
+      <c r="E123">
+        <v>2017</v>
+      </c>
+      <c r="F123" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>1</v>
+      </c>
+      <c r="B124">
+        <v>4696.9448110752101</v>
+      </c>
+      <c r="C124">
+        <v>74.9331167998632</v>
+      </c>
+      <c r="D124" t="s">
+        <v>16</v>
+      </c>
+      <c r="E124">
+        <v>2017</v>
+      </c>
+      <c r="F124" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>1</v>
+      </c>
+      <c r="B125">
+        <v>5097.04998402398</v>
+      </c>
+      <c r="C125">
+        <v>84.057438352066299</v>
+      </c>
+      <c r="D125" t="s">
+        <v>16</v>
+      </c>
+      <c r="E125">
+        <v>2017</v>
+      </c>
+      <c r="F125" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>1</v>
+      </c>
+      <c r="B126">
+        <v>3302.9510104073102</v>
+      </c>
+      <c r="C126">
+        <v>90.938074276678407</v>
+      </c>
+      <c r="D126" t="s">
+        <v>16</v>
+      </c>
+      <c r="E126">
+        <v>2017</v>
+      </c>
+      <c r="F126" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <v>1</v>
+      </c>
+      <c r="B127">
+        <v>4899.0757589730501</v>
+      </c>
+      <c r="C127">
+        <v>95.1262874481815</v>
+      </c>
+      <c r="D127" t="s">
+        <v>16</v>
+      </c>
+      <c r="E127">
+        <v>2017</v>
+      </c>
+      <c r="F127" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>1</v>
+      </c>
+      <c r="B128">
+        <v>1509.8066908415999</v>
+      </c>
+      <c r="C128">
+        <v>104.998504209581</v>
+      </c>
+      <c r="D128" t="s">
+        <v>16</v>
+      </c>
+      <c r="E128">
+        <v>2017</v>
+      </c>
+      <c r="F128" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>1</v>
+      </c>
+      <c r="B129">
+        <v>14.8965809202491</v>
+      </c>
+      <c r="C129">
+        <v>112.02871917603299</v>
+      </c>
+      <c r="D129" t="s">
+        <v>16</v>
+      </c>
+      <c r="E129">
+        <v>2017</v>
+      </c>
+      <c r="F129" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <v>1</v>
+      </c>
+      <c r="B130">
+        <v>1378.71223277174</v>
+      </c>
+      <c r="C130">
+        <v>119.05893414248401</v>
+      </c>
+      <c r="D130" t="s">
+        <v>16</v>
+      </c>
+      <c r="E130">
+        <v>2017</v>
+      </c>
+      <c r="F130" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <v>1</v>
+      </c>
+      <c r="B131">
+        <v>9889.1831800468699</v>
+      </c>
+      <c r="C131">
+        <v>124.89251677422099</v>
+      </c>
+      <c r="D131" t="s">
+        <v>16</v>
+      </c>
+      <c r="E131">
+        <v>2017</v>
+      </c>
+      <c r="F131" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <v>1</v>
+      </c>
+      <c r="B132">
+        <v>17.561656812522401</v>
+      </c>
+      <c r="C132">
+        <v>132.07231078251201</v>
+      </c>
+      <c r="D132" t="s">
+        <v>16</v>
+      </c>
+      <c r="E132">
+        <v>2017</v>
+      </c>
+      <c r="F132" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <v>1</v>
+      </c>
+      <c r="B133">
+        <v>21.604938271604599</v>
+      </c>
+      <c r="C133">
+        <v>5.0917992656058697</v>
+      </c>
+      <c r="D133" t="s">
+        <v>9</v>
+      </c>
+      <c r="E133">
+        <v>2020</v>
+      </c>
+      <c r="F133" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G133">
+        <v>48654.32099</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <v>1</v>
+      </c>
+      <c r="B134">
+        <v>21.604938271604599</v>
+      </c>
+      <c r="C134">
+        <v>12.925336597307201</v>
+      </c>
+      <c r="D134" t="s">
+        <v>9</v>
+      </c>
+      <c r="E134">
+        <v>2020</v>
+      </c>
+      <c r="F134" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <v>1</v>
+      </c>
+      <c r="B135">
+        <v>367.28395061728497</v>
+      </c>
+      <c r="C135">
+        <v>20.1713586291309</v>
+      </c>
+      <c r="D135" t="s">
+        <v>14</v>
+      </c>
+      <c r="E135">
+        <v>2020</v>
+      </c>
+      <c r="F135" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <v>1</v>
+      </c>
+      <c r="B136">
+        <v>1555.55555555555</v>
+      </c>
+      <c r="C136">
+        <v>25.067319461444299</v>
+      </c>
+      <c r="D136" t="s">
+        <v>14</v>
+      </c>
+      <c r="E136">
+        <v>2020</v>
+      </c>
+      <c r="F136" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A137">
+        <v>1</v>
+      </c>
+      <c r="B137">
+        <v>2074.0740740740698</v>
+      </c>
+      <c r="C137">
+        <v>34.075887392900803</v>
+      </c>
+      <c r="D137" t="s">
+        <v>14</v>
+      </c>
+      <c r="E137">
+        <v>2020</v>
+      </c>
+      <c r="F137" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A138">
+        <v>1</v>
+      </c>
+      <c r="B138">
+        <v>3132.71604938271</v>
+      </c>
+      <c r="C138">
+        <v>42.301101591187198</v>
+      </c>
+      <c r="D138" t="s">
+        <v>14</v>
+      </c>
+      <c r="E138">
+        <v>2020</v>
+      </c>
+      <c r="F138" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <v>1</v>
+      </c>
+      <c r="B139">
+        <v>3175.9259259259202</v>
+      </c>
+      <c r="C139">
+        <v>44.063647490820003</v>
+      </c>
+      <c r="D139" t="s">
+        <v>14</v>
+      </c>
+      <c r="E139">
+        <v>2020</v>
+      </c>
+      <c r="F139" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A140">
+        <v>1</v>
+      </c>
+      <c r="B140">
+        <v>3391.9753086419701</v>
+      </c>
+      <c r="C140">
+        <v>46.217870257037902</v>
+      </c>
+      <c r="D140" t="s">
+        <v>14</v>
+      </c>
+      <c r="E140">
+        <v>2020</v>
+      </c>
+      <c r="F140" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A141">
+        <v>1</v>
+      </c>
+      <c r="B141">
+        <v>4277.7777777777701</v>
+      </c>
+      <c r="C141">
+        <v>48.959608323133402</v>
+      </c>
+      <c r="D141" t="s">
+        <v>14</v>
+      </c>
+      <c r="E141">
+        <v>2020</v>
+      </c>
+      <c r="F141" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A142">
+        <v>1</v>
+      </c>
+      <c r="B142">
+        <v>4472.2222222222199</v>
+      </c>
+      <c r="C142">
+        <v>53.855569155446702</v>
+      </c>
+      <c r="D142" t="s">
+        <v>14</v>
+      </c>
+      <c r="E142">
+        <v>2020</v>
+      </c>
+      <c r="F142" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A143">
+        <v>1</v>
+      </c>
+      <c r="B143">
+        <v>4472.2222222222199</v>
+      </c>
+      <c r="C143">
+        <v>66.976744186046503</v>
+      </c>
+      <c r="D143" t="s">
+        <v>14</v>
+      </c>
+      <c r="E143">
+        <v>2020</v>
+      </c>
+      <c r="F143" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A144">
+        <v>1</v>
+      </c>
+      <c r="B144">
+        <v>4407.4074074073997</v>
+      </c>
+      <c r="C144">
+        <v>72.851897184822505</v>
+      </c>
+      <c r="D144" t="s">
+        <v>14</v>
+      </c>
+      <c r="E144">
+        <v>2020</v>
+      </c>
+      <c r="F144" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A145">
+        <v>1</v>
+      </c>
+      <c r="B145">
+        <v>3478.3950617283899</v>
+      </c>
+      <c r="C145">
+        <v>89.889840881272903</v>
+      </c>
+      <c r="D145" t="s">
+        <v>14</v>
+      </c>
+      <c r="E145">
+        <v>2020</v>
+      </c>
+      <c r="F145" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A146">
+        <v>1</v>
+      </c>
+      <c r="B146">
+        <v>3262.34567901234</v>
+      </c>
+      <c r="C146">
+        <v>94.981640146878803</v>
+      </c>
+      <c r="D146" t="s">
+        <v>14</v>
+      </c>
+      <c r="E146">
+        <v>2020</v>
+      </c>
+      <c r="F146" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A147">
+        <v>1</v>
+      </c>
+      <c r="B147">
+        <v>3089.5061728394999</v>
+      </c>
+      <c r="C147">
+        <v>102.03182374540999</v>
+      </c>
+      <c r="D147" t="s">
+        <v>14</v>
+      </c>
+      <c r="E147">
+        <v>2020</v>
+      </c>
+      <c r="F147" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A148">
+        <v>1</v>
+      </c>
+      <c r="B148">
+        <v>3024.6913580246901</v>
+      </c>
+      <c r="C148">
+        <v>110.844553243574</v>
+      </c>
+      <c r="D148" t="s">
+        <v>14</v>
+      </c>
+      <c r="E148">
+        <v>2020</v>
+      </c>
+      <c r="F148" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A149">
+        <v>1</v>
+      </c>
+      <c r="B149">
+        <v>2527.7777777777701</v>
+      </c>
+      <c r="C149">
+        <v>116.915544675642</v>
+      </c>
+      <c r="D149" t="s">
+        <v>14</v>
+      </c>
+      <c r="E149">
+        <v>2020</v>
+      </c>
+      <c r="F149" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A150">
+        <v>1</v>
+      </c>
+      <c r="B150">
+        <v>1469.1358024691301</v>
+      </c>
+      <c r="C150">
+        <v>124.944920440636</v>
+      </c>
+      <c r="D150" t="s">
+        <v>14</v>
+      </c>
+      <c r="E150">
+        <v>2020</v>
+      </c>
+      <c r="F150" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A151">
+        <v>1</v>
+      </c>
+      <c r="B151">
+        <v>151.23456790123601</v>
+      </c>
+      <c r="C151">
+        <v>129.84088127294899</v>
+      </c>
+      <c r="D151" t="s">
+        <v>14</v>
+      </c>
+      <c r="E151">
+        <v>2020</v>
+      </c>
+      <c r="F151" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A152">
+        <v>1</v>
+      </c>
+      <c r="B152">
+        <v>280.86419753086301</v>
+      </c>
+      <c r="C152">
+        <v>131.99510403916699</v>
+      </c>
+      <c r="D152" t="s">
+        <v>14</v>
+      </c>
+      <c r="E152">
+        <v>2020</v>
+      </c>
+      <c r="F152" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A153">
+        <v>1</v>
+      </c>
+      <c r="B153">
+        <v>0</v>
+      </c>
+      <c r="C153">
+        <v>138.849449204406</v>
+      </c>
+      <c r="D153" t="s">
+        <v>14</v>
+      </c>
+      <c r="E153">
+        <v>2020</v>
+      </c>
+      <c r="F153" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A154">
+        <v>1</v>
+      </c>
+      <c r="B154">
+        <v>0</v>
+      </c>
+      <c r="C154">
+        <v>4.8999999999999897</v>
+      </c>
+      <c r="D154" t="s">
+        <v>9</v>
+      </c>
+      <c r="E154">
+        <v>2020</v>
+      </c>
+      <c r="F154" t="s">
+        <v>26</v>
+      </c>
+      <c r="G154">
+        <v>21927.71084</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A155">
+        <v>1</v>
+      </c>
+      <c r="B155">
+        <v>843.37349397590799</v>
+      </c>
+      <c r="C155">
+        <v>11.024999999999901</v>
+      </c>
+      <c r="D155" t="s">
+        <v>9</v>
+      </c>
+      <c r="E155">
+        <v>2020</v>
+      </c>
+      <c r="F155" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A156">
+        <v>1</v>
+      </c>
+      <c r="B156">
+        <v>6662.6506024096298</v>
+      </c>
+      <c r="C156">
+        <v>18.024999999999999</v>
+      </c>
+      <c r="D156" t="s">
+        <v>14</v>
+      </c>
+      <c r="E156">
+        <v>2020</v>
+      </c>
+      <c r="F156" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A157">
+        <v>1</v>
+      </c>
+      <c r="B157">
+        <v>168.67469879518401</v>
+      </c>
+      <c r="C157">
+        <v>28.875</v>
+      </c>
+      <c r="D157" t="s">
+        <v>14</v>
+      </c>
+      <c r="E157">
+        <v>2020</v>
+      </c>
+      <c r="F157" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A158">
+        <v>1</v>
+      </c>
+      <c r="B158">
+        <v>927.71084337349703</v>
+      </c>
+      <c r="C158">
+        <v>33.950000000000003</v>
+      </c>
+      <c r="D158" t="s">
+        <v>14</v>
+      </c>
+      <c r="E158">
+        <v>2020</v>
+      </c>
+      <c r="F158" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A159">
+        <v>1</v>
+      </c>
+      <c r="B159">
+        <v>801.20481927711</v>
+      </c>
+      <c r="C159">
+        <v>39.9</v>
+      </c>
+      <c r="D159" t="s">
+        <v>14</v>
+      </c>
+      <c r="E159">
+        <v>2020</v>
+      </c>
+      <c r="F159" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A160">
+        <v>1</v>
+      </c>
+      <c r="B160">
+        <v>1644.57831325301</v>
+      </c>
+      <c r="C160">
+        <v>44.1</v>
+      </c>
+      <c r="D160" t="s">
+        <v>14</v>
+      </c>
+      <c r="E160">
+        <v>2020</v>
+      </c>
+      <c r="F160" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A161">
+        <v>1</v>
+      </c>
+      <c r="B161">
+        <v>1391.5662650602301</v>
+      </c>
+      <c r="C161">
+        <v>46.024999999999999</v>
+      </c>
+      <c r="D161" t="s">
+        <v>14</v>
+      </c>
+      <c r="E161">
+        <v>2020</v>
+      </c>
+      <c r="F161" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A162">
+        <v>1</v>
+      </c>
+      <c r="B162">
+        <v>1602.40963855422</v>
+      </c>
+      <c r="C162">
+        <v>47.949999999999903</v>
+      </c>
+      <c r="D162" t="s">
+        <v>14</v>
+      </c>
+      <c r="E162">
+        <v>2020</v>
+      </c>
+      <c r="F162" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A163">
+        <v>1</v>
+      </c>
+      <c r="B163">
+        <v>1855.42168674698</v>
+      </c>
+      <c r="C163">
+        <v>52.85</v>
+      </c>
+      <c r="D163" t="s">
+        <v>14</v>
+      </c>
+      <c r="E163">
+        <v>2020</v>
+      </c>
+      <c r="F163" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A164">
+        <v>1</v>
+      </c>
+      <c r="B164">
+        <v>1096.3855421686701</v>
+      </c>
+      <c r="C164">
+        <v>60.9</v>
+      </c>
+      <c r="D164" t="s">
+        <v>14</v>
+      </c>
+      <c r="E164">
+        <v>2020</v>
+      </c>
+      <c r="F164" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A165">
+        <v>1</v>
+      </c>
+      <c r="B165">
+        <v>1012.04819277108</v>
+      </c>
+      <c r="C165">
+        <v>67.025000000000006</v>
+      </c>
+      <c r="D165" t="s">
+        <v>14</v>
+      </c>
+      <c r="E165">
+        <v>2020</v>
+      </c>
+      <c r="F165" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A166">
+        <v>1</v>
+      </c>
+      <c r="B166">
+        <v>1012.04819277108</v>
+      </c>
+      <c r="C166">
+        <v>77.875</v>
+      </c>
+      <c r="D166" t="s">
+        <v>14</v>
+      </c>
+      <c r="E166">
+        <v>2020</v>
+      </c>
+      <c r="F166" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A167">
+        <v>1</v>
+      </c>
+      <c r="B167">
+        <v>1012.04819277108</v>
+      </c>
+      <c r="C167">
+        <v>82.95</v>
+      </c>
+      <c r="D167" t="s">
+        <v>14</v>
+      </c>
+      <c r="E167">
+        <v>2020</v>
+      </c>
+      <c r="F167" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A168">
+        <v>1</v>
+      </c>
+      <c r="B168">
+        <v>590.36144578313497</v>
+      </c>
+      <c r="C168">
+        <v>89.95</v>
+      </c>
+      <c r="D168" t="s">
+        <v>14</v>
+      </c>
+      <c r="E168">
+        <v>2020</v>
+      </c>
+      <c r="F168" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A169">
+        <v>1</v>
+      </c>
+      <c r="B169">
+        <v>253.01204819277299</v>
+      </c>
+      <c r="C169">
+        <v>96.075000000000003</v>
+      </c>
+      <c r="D169" t="s">
+        <v>14</v>
+      </c>
+      <c r="E169">
+        <v>2020</v>
+      </c>
+      <c r="F169" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A170">
+        <v>1</v>
+      </c>
+      <c r="B170">
+        <v>674.69879518072401</v>
+      </c>
+      <c r="C170">
+        <v>102.9</v>
+      </c>
+      <c r="D170" t="s">
+        <v>14</v>
+      </c>
+      <c r="E170">
+        <v>2020</v>
+      </c>
+      <c r="F170" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A171">
+        <v>1</v>
+      </c>
+      <c r="B171">
+        <v>168.67469879518401</v>
+      </c>
+      <c r="C171">
+        <v>109.02500000000001</v>
+      </c>
+      <c r="D171" t="s">
+        <v>14</v>
+      </c>
+      <c r="E171">
+        <v>2020</v>
+      </c>
+      <c r="F171" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A172">
+        <v>1</v>
+      </c>
+      <c r="B172">
+        <v>126.506024096386</v>
+      </c>
+      <c r="C172">
+        <v>110.95</v>
+      </c>
+      <c r="D172" t="s">
+        <v>14</v>
+      </c>
+      <c r="E172">
+        <v>2020</v>
+      </c>
+      <c r="F172" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A173">
+        <v>1</v>
+      </c>
+      <c r="B173">
+        <v>84.337349397595901</v>
+      </c>
+      <c r="C173">
+        <v>113.05</v>
+      </c>
+      <c r="D173" t="s">
+        <v>14</v>
+      </c>
+      <c r="E173">
+        <v>2020</v>
+      </c>
+      <c r="F173" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A174">
+        <v>1</v>
+      </c>
+      <c r="B174">
+        <v>0</v>
+      </c>
+      <c r="C174">
+        <v>118.125</v>
+      </c>
+      <c r="D174" t="s">
+        <v>14</v>
+      </c>
+      <c r="E174">
+        <v>2020</v>
+      </c>
+      <c r="F174" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A175">
+        <v>1</v>
+      </c>
+      <c r="B175">
+        <v>0</v>
+      </c>
+      <c r="C175">
+        <v>124.95</v>
+      </c>
+      <c r="D175" t="s">
+        <v>14</v>
+      </c>
+      <c r="E175">
+        <v>2020</v>
+      </c>
+      <c r="F175" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A176">
+        <v>1</v>
+      </c>
+      <c r="B176">
+        <v>0</v>
+      </c>
+      <c r="C176">
+        <v>0.96269554753309405</v>
+      </c>
+      <c r="D176" t="s">
+        <v>18</v>
+      </c>
+      <c r="E176">
+        <v>2020</v>
+      </c>
+      <c r="F176" t="s">
+        <v>25</v>
+      </c>
+      <c r="G176">
+        <v>8773.0337080000008</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A177">
+        <v>1</v>
+      </c>
+      <c r="B177">
+        <v>0</v>
+      </c>
+      <c r="C177">
+        <v>8.8567990373044498</v>
+      </c>
+      <c r="D177" t="s">
+        <v>18</v>
+      </c>
+      <c r="E177">
+        <v>2020</v>
+      </c>
+      <c r="F177" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A178">
+        <v>1</v>
+      </c>
+      <c r="B178">
+        <v>0</v>
+      </c>
+      <c r="C178">
+        <v>17.906137184115501</v>
+      </c>
+      <c r="D178" t="s">
+        <v>31</v>
+      </c>
+      <c r="E178">
+        <v>2020</v>
+      </c>
+      <c r="F178" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A179">
+        <v>1</v>
+      </c>
+      <c r="B179">
+        <v>44.943820224718998</v>
+      </c>
+      <c r="C179">
+        <v>24.067388688327298</v>
+      </c>
+      <c r="D179" t="s">
+        <v>31</v>
+      </c>
+      <c r="E179">
+        <v>2020</v>
+      </c>
+      <c r="F179" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A180">
+        <v>1</v>
+      </c>
+      <c r="B180">
+        <v>152.80898876404399</v>
+      </c>
+      <c r="C180">
+        <v>30.036101083032499</v>
+      </c>
+      <c r="D180" t="s">
+        <v>31</v>
+      </c>
+      <c r="E180">
+        <v>2020</v>
+      </c>
+      <c r="F180" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A181">
+        <v>1</v>
+      </c>
+      <c r="B181">
+        <v>53.932584269662797</v>
+      </c>
+      <c r="C181">
+        <v>36.004813477737599</v>
+      </c>
+      <c r="D181" t="s">
+        <v>31</v>
+      </c>
+      <c r="E181">
+        <v>2020</v>
+      </c>
+      <c r="F181" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A182">
+        <v>1</v>
+      </c>
+      <c r="B182">
+        <v>94.382022471909906</v>
+      </c>
+      <c r="C182">
+        <v>37.930204572803802</v>
+      </c>
+      <c r="D182" t="s">
+        <v>31</v>
+      </c>
+      <c r="E182">
+        <v>2020</v>
+      </c>
+      <c r="F182" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A183">
+        <v>1</v>
+      </c>
+      <c r="B183">
+        <v>49.438202247190901</v>
+      </c>
+      <c r="C183">
+        <v>40.048134777376603</v>
+      </c>
+      <c r="D183" t="s">
+        <v>31</v>
+      </c>
+      <c r="E183">
+        <v>2020</v>
+      </c>
+      <c r="F183" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A184">
+        <v>1</v>
+      </c>
+      <c r="B184">
+        <v>89.887640449438095</v>
+      </c>
+      <c r="C184">
+        <v>41.010830324909698</v>
+      </c>
+      <c r="D184" t="s">
+        <v>31</v>
+      </c>
+      <c r="E184">
+        <v>2020</v>
+      </c>
+      <c r="F184" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A185">
+        <v>1</v>
+      </c>
+      <c r="B185">
+        <v>98.876404494382001</v>
+      </c>
+      <c r="C185">
+        <v>46.979542719614898</v>
+      </c>
+      <c r="D185" t="s">
+        <v>31</v>
+      </c>
+      <c r="E185">
+        <v>2020</v>
+      </c>
+      <c r="F185" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A186">
+        <v>1</v>
+      </c>
+      <c r="B186">
+        <v>404.49438202247097</v>
+      </c>
+      <c r="C186">
+        <v>52.948255114320098</v>
+      </c>
+      <c r="D186" t="s">
+        <v>31</v>
+      </c>
+      <c r="E186">
+        <v>2020</v>
+      </c>
+      <c r="F186" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A187">
+        <v>1</v>
+      </c>
+      <c r="B187">
+        <v>444.94382022471899</v>
+      </c>
+      <c r="C187">
+        <v>60.072202166064898</v>
+      </c>
+      <c r="D187" t="s">
+        <v>31</v>
+      </c>
+      <c r="E187">
+        <v>2020</v>
+      </c>
+      <c r="F187" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A188">
+        <v>1</v>
+      </c>
+      <c r="B188">
+        <v>804.494382022472</v>
+      </c>
+      <c r="C188">
+        <v>67.966305655836294</v>
+      </c>
+      <c r="D188" t="s">
+        <v>31</v>
+      </c>
+      <c r="E188">
+        <v>2020</v>
+      </c>
+      <c r="F188" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A189">
+        <v>1</v>
+      </c>
+      <c r="B189">
+        <v>611.23595505617902</v>
+      </c>
+      <c r="C189">
+        <v>73.935018050541501</v>
+      </c>
+      <c r="D189" t="s">
+        <v>31</v>
+      </c>
+      <c r="E189">
+        <v>2020</v>
+      </c>
+      <c r="F189" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A190">
+        <v>1</v>
+      </c>
+      <c r="B190">
+        <v>853.93258426966202</v>
+      </c>
+      <c r="C190">
+        <v>79.903730445246595</v>
+      </c>
+      <c r="D190" t="s">
+        <v>31</v>
+      </c>
+      <c r="E190">
+        <v>2020</v>
+      </c>
+      <c r="F190" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A191">
+        <v>1</v>
+      </c>
+      <c r="B191">
+        <v>840.44943820224705</v>
+      </c>
+      <c r="C191">
+        <v>91.070998796630505</v>
+      </c>
+      <c r="D191" t="s">
+        <v>31</v>
+      </c>
+      <c r="E191">
+        <v>2020</v>
+      </c>
+      <c r="F191" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A192">
+        <v>1</v>
+      </c>
+      <c r="B192">
+        <v>1271.9101123595501</v>
+      </c>
+      <c r="C192">
+        <v>96.077015643802596</v>
+      </c>
+      <c r="D192" t="s">
+        <v>31</v>
+      </c>
+      <c r="E192">
+        <v>2020</v>
+      </c>
+      <c r="F192" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A193">
+        <v>1</v>
+      </c>
+      <c r="B193">
+        <v>975.28089887640397</v>
+      </c>
+      <c r="C193">
+        <v>103.00842358604</v>
+      </c>
+      <c r="D193" t="s">
+        <v>31</v>
+      </c>
+      <c r="E193">
+        <v>2020</v>
+      </c>
+      <c r="F193" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A194">
+        <v>1</v>
+      </c>
+      <c r="B194">
+        <v>633.707865168539</v>
+      </c>
+      <c r="C194">
+        <v>108.977135980746</v>
+      </c>
+      <c r="D194" t="s">
+        <v>31</v>
+      </c>
+      <c r="E194">
+        <v>2020</v>
+      </c>
+      <c r="F194" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A195">
+        <v>1</v>
+      </c>
+      <c r="B195">
+        <v>759.55056179775295</v>
+      </c>
+      <c r="C195">
+        <v>115.90854392298399</v>
+      </c>
+      <c r="D195" t="s">
+        <v>31</v>
+      </c>
+      <c r="E195">
+        <v>2020</v>
+      </c>
+      <c r="F195" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A196">
+        <v>1</v>
+      </c>
+      <c r="B196">
+        <v>350.56179775280901</v>
+      </c>
+      <c r="C196">
+        <v>122.069795427196</v>
+      </c>
+      <c r="D196" t="s">
+        <v>31</v>
+      </c>
+      <c r="E196">
+        <v>2020</v>
+      </c>
+      <c r="F196" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A197">
+        <v>1</v>
+      </c>
+      <c r="B197">
+        <v>157.30337078651701</v>
+      </c>
+      <c r="C197">
+        <v>123.995186522262</v>
+      </c>
+      <c r="D197" t="s">
+        <v>31</v>
+      </c>
+      <c r="E197">
+        <v>2020</v>
+      </c>
+      <c r="F197" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A198">
+        <v>1</v>
+      </c>
+      <c r="B198">
+        <v>80.898876404494501</v>
+      </c>
+      <c r="C198">
+        <v>126.113116726835</v>
+      </c>
+      <c r="D198" t="s">
+        <v>31</v>
+      </c>
+      <c r="E198">
+        <v>2020</v>
+      </c>
+      <c r="F198" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A199">
+        <v>1</v>
+      </c>
+      <c r="B199">
+        <v>0</v>
+      </c>
+      <c r="C199">
+        <v>131.11913357400701</v>
+      </c>
+      <c r="D199" t="s">
+        <v>31</v>
+      </c>
+      <c r="E199">
+        <v>2020</v>
+      </c>
+      <c r="F199" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A200">
+        <v>1</v>
+      </c>
+      <c r="B200">
+        <v>0</v>
+      </c>
+      <c r="C200">
+        <v>137.087845968712</v>
+      </c>
+      <c r="D200" t="s">
+        <v>31</v>
+      </c>
+      <c r="E200">
+        <v>2020</v>
+      </c>
+      <c r="F200" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A201">
+        <v>1</v>
+      </c>
+      <c r="B201">
+        <v>0</v>
+      </c>
+      <c r="C201">
+        <v>2.05378973105134</v>
+      </c>
+      <c r="D201" t="s">
+        <v>9</v>
+      </c>
+      <c r="E201">
+        <v>2020</v>
+      </c>
+      <c r="F201" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G201">
+        <v>5772.8531860000003</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A202">
+        <v>1</v>
+      </c>
+      <c r="B202">
+        <v>0</v>
+      </c>
+      <c r="C202">
+        <v>10.9535452322738</v>
+      </c>
+      <c r="D202" t="s">
+        <v>9</v>
+      </c>
+      <c r="E202">
+        <v>2020</v>
+      </c>
+      <c r="F202" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A203">
+        <v>1</v>
+      </c>
+      <c r="B203">
+        <v>36.011080332410501</v>
+      </c>
+      <c r="C203">
+        <v>22.078239608801901</v>
+      </c>
+      <c r="D203" t="s">
+        <v>14</v>
+      </c>
+      <c r="E203">
+        <v>2020</v>
+      </c>
+      <c r="F203" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A204">
+        <v>1</v>
+      </c>
+      <c r="B204">
+        <v>121.883656509695</v>
+      </c>
+      <c r="C204">
+        <v>30.122249388753001</v>
+      </c>
+      <c r="D204" t="s">
+        <v>14</v>
+      </c>
+      <c r="E204">
+        <v>2020</v>
+      </c>
+      <c r="F204" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A205">
+        <v>1</v>
+      </c>
+      <c r="B205">
+        <v>49.861495844875201</v>
+      </c>
+      <c r="C205">
+        <v>37.995110024449801</v>
+      </c>
+      <c r="D205" t="s">
+        <v>14</v>
+      </c>
+      <c r="E205">
+        <v>2020</v>
+      </c>
+      <c r="F205" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A206">
+        <v>1</v>
+      </c>
+      <c r="B206">
+        <v>545.70637119113496</v>
+      </c>
+      <c r="C206">
+        <v>46.039119804400897</v>
+      </c>
+      <c r="D206" t="s">
+        <v>14</v>
+      </c>
+      <c r="E206">
+        <v>2020</v>
+      </c>
+      <c r="F206" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A207">
+        <v>1</v>
+      </c>
+      <c r="B207">
+        <v>80.332409972299004</v>
+      </c>
+      <c r="C207">
+        <v>48.948655256723697</v>
+      </c>
+      <c r="D207" t="s">
+        <v>14</v>
+      </c>
+      <c r="E207">
+        <v>2020</v>
+      </c>
+      <c r="F207" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A208">
+        <v>1</v>
+      </c>
+      <c r="B208">
+        <v>282.548476454293</v>
+      </c>
+      <c r="C208">
+        <v>51.002444987775</v>
+      </c>
+      <c r="D208" t="s">
+        <v>14</v>
+      </c>
+      <c r="E208">
+        <v>2020</v>
+      </c>
+      <c r="F208" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A209">
+        <v>1</v>
+      </c>
+      <c r="B209">
+        <v>235.45706371191099</v>
+      </c>
+      <c r="C209">
+        <v>55.794621026894802</v>
+      </c>
+      <c r="D209" t="s">
+        <v>14</v>
+      </c>
+      <c r="E209">
+        <v>2020</v>
+      </c>
+      <c r="F209" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A210">
+        <v>1</v>
+      </c>
+      <c r="B210">
+        <v>432.13296398891902</v>
+      </c>
+      <c r="C210">
+        <v>65.036674816625904</v>
+      </c>
+      <c r="D210" t="s">
+        <v>14</v>
+      </c>
+      <c r="E210">
+        <v>2020</v>
+      </c>
+      <c r="F210" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A211">
+        <v>1</v>
+      </c>
+      <c r="B211">
+        <v>614.95844875346199</v>
+      </c>
+      <c r="C211">
+        <v>71.026894865525605</v>
+      </c>
+      <c r="D211" t="s">
+        <v>14</v>
+      </c>
+      <c r="E211">
+        <v>2020</v>
+      </c>
+      <c r="F211" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A212">
+        <v>1</v>
+      </c>
+      <c r="B212">
+        <v>554.01662049861397</v>
+      </c>
+      <c r="C212">
+        <v>81.980440097799502</v>
+      </c>
+      <c r="D212" t="s">
+        <v>14</v>
+      </c>
+      <c r="E212">
+        <v>2020</v>
+      </c>
+      <c r="F212" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A213">
+        <v>1</v>
+      </c>
+      <c r="B213">
+        <v>944.59833795013799</v>
+      </c>
+      <c r="C213">
+        <v>86.943765281173597</v>
+      </c>
+      <c r="D213" t="s">
+        <v>14</v>
+      </c>
+      <c r="E213">
+        <v>2020</v>
+      </c>
+      <c r="F213" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A214">
+        <v>1</v>
+      </c>
+      <c r="B214">
+        <v>739.61218836565001</v>
+      </c>
+      <c r="C214">
+        <v>93.105134474327599</v>
+      </c>
+      <c r="D214" t="s">
+        <v>14</v>
+      </c>
+      <c r="E214">
+        <v>2020</v>
+      </c>
+      <c r="F214" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A215">
+        <v>1</v>
+      </c>
+      <c r="B215">
+        <v>645.42936288088595</v>
+      </c>
+      <c r="C215">
+        <v>100.122249388753</v>
+      </c>
+      <c r="D215" t="s">
+        <v>14</v>
+      </c>
+      <c r="E215">
+        <v>2020</v>
+      </c>
+      <c r="F215" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A216">
+        <v>1</v>
+      </c>
+      <c r="B216">
+        <v>340.72022160664801</v>
+      </c>
+      <c r="C216">
+        <v>107.995110024449</v>
+      </c>
+      <c r="D216" t="s">
+        <v>14</v>
+      </c>
+      <c r="E216">
+        <v>2020</v>
+      </c>
+      <c r="F216" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A217">
+        <v>1</v>
+      </c>
+      <c r="B217">
+        <v>116.34349030470899</v>
+      </c>
+      <c r="C217">
+        <v>113.985330073349</v>
+      </c>
+      <c r="D217" t="s">
+        <v>14</v>
+      </c>
+      <c r="E217">
+        <v>2020</v>
+      </c>
+      <c r="F217" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A218">
+        <v>1</v>
+      </c>
+      <c r="B218">
+        <v>0</v>
+      </c>
+      <c r="C218">
+        <v>116.0391198044</v>
+      </c>
+      <c r="D218" t="s">
+        <v>14</v>
+      </c>
+      <c r="E218">
+        <v>2020</v>
+      </c>
+      <c r="F218" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A219">
+        <v>1</v>
+      </c>
+      <c r="B219">
+        <v>30.4709141274238</v>
+      </c>
+      <c r="C219">
+        <v>117.92176039119801</v>
+      </c>
+      <c r="D219" t="s">
+        <v>14</v>
+      </c>
+      <c r="E219">
+        <v>2020</v>
+      </c>
+      <c r="F219" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A220">
+        <v>1</v>
+      </c>
+      <c r="B220">
+        <v>2.7700831024931101</v>
+      </c>
+      <c r="C220">
+        <v>124.938875305623</v>
+      </c>
+      <c r="D220" t="s">
+        <v>14</v>
+      </c>
+      <c r="E220">
+        <v>2020</v>
+      </c>
+      <c r="F220" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A221">
+        <v>1</v>
+      </c>
+      <c r="B221">
+        <v>0</v>
+      </c>
+      <c r="C221">
+        <v>130.07334963325101</v>
+      </c>
+      <c r="D221" t="s">
+        <v>14</v>
+      </c>
+      <c r="E221">
+        <v>2020</v>
+      </c>
+      <c r="F221" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A222">
+        <v>1</v>
+      </c>
+      <c r="B222">
+        <v>88.560885608856097</v>
+      </c>
+      <c r="C222">
+        <v>2.1403508771929798</v>
+      </c>
+      <c r="D222" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E222">
+        <v>2011</v>
+      </c>
+      <c r="F222" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G222">
+        <v>4970.4797049999997</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A223">
+        <v>1</v>
+      </c>
+      <c r="B223">
+        <v>94.095940959409702</v>
+      </c>
+      <c r="C223">
+        <v>14.126315789473599</v>
+      </c>
+      <c r="D223" t="s">
+        <v>30</v>
+      </c>
+      <c r="E223">
+        <v>2011</v>
+      </c>
+      <c r="F223" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A224">
+        <v>1</v>
+      </c>
+      <c r="B224">
+        <v>287.82287822878197</v>
+      </c>
+      <c r="C224">
+        <v>29.536842105263101</v>
+      </c>
+      <c r="D224" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E224">
+        <v>2011</v>
+      </c>
+      <c r="F224" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A225">
+        <v>1</v>
+      </c>
+      <c r="B225">
+        <v>426.19926199261999</v>
+      </c>
+      <c r="C225">
+        <v>36.385964912280599</v>
+      </c>
+      <c r="D225" t="s">
+        <v>29</v>
+      </c>
+      <c r="E225">
+        <v>2011</v>
+      </c>
+      <c r="F225" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A226">
+        <v>1</v>
+      </c>
+      <c r="B226">
+        <v>774.90774907749096</v>
+      </c>
+      <c r="C226">
+        <v>48.371929824561299</v>
+      </c>
+      <c r="D226" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E226">
+        <v>2011</v>
+      </c>
+      <c r="F226" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A227">
+        <v>1</v>
+      </c>
+      <c r="B227">
+        <v>869.00369003690003</v>
+      </c>
+      <c r="C227">
+        <v>62.498245614035</v>
+      </c>
+      <c r="D227" t="s">
+        <v>29</v>
+      </c>
+      <c r="E227">
+        <v>2011</v>
+      </c>
+      <c r="F227" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A228">
+        <v>1</v>
+      </c>
+      <c r="B228">
+        <v>918.81918819188195</v>
+      </c>
+      <c r="C228">
+        <v>77.052631578947299</v>
+      </c>
+      <c r="D228" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E228">
+        <v>2011</v>
+      </c>
+      <c r="F228" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A229">
+        <v>1</v>
+      </c>
+      <c r="B229">
+        <v>891.14391143911405</v>
+      </c>
+      <c r="C229">
+        <v>89.466666666666598</v>
+      </c>
+      <c r="D229" t="s">
+        <v>29</v>
+      </c>
+      <c r="E229">
+        <v>2011</v>
+      </c>
+      <c r="F229" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A230">
+        <v>1</v>
+      </c>
+      <c r="B230">
+        <v>337.63837638376299</v>
+      </c>
+      <c r="C230">
+        <v>104.44912280701701</v>
+      </c>
+      <c r="D230" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E230">
+        <v>2011</v>
+      </c>
+      <c r="F230" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A231">
+        <v>1</v>
+      </c>
+      <c r="B231">
+        <v>282.28782287822798</v>
+      </c>
+      <c r="C231">
+        <v>121.14385964912201</v>
+      </c>
+      <c r="D231" t="s">
+        <v>29</v>
+      </c>
+      <c r="E231">
+        <v>2011</v>
+      </c>
+      <c r="F231" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A232">
+        <v>1</v>
+      </c>
+      <c r="B232">
+        <v>94.095940959409702</v>
+      </c>
+      <c r="C232">
+        <v>2.1403508771929798</v>
+      </c>
+      <c r="D232" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E232">
+        <v>2011</v>
+      </c>
+      <c r="F232" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G232">
+        <v>5723.2472319999997</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A233">
+        <v>1</v>
+      </c>
+      <c r="B233">
+        <v>99.630996309963393</v>
+      </c>
+      <c r="C233">
+        <v>14.126315789473599</v>
+      </c>
+      <c r="D233" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E233">
+        <v>2011</v>
+      </c>
+      <c r="F233" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A234">
+        <v>1</v>
+      </c>
+      <c r="B234">
+        <v>487.08487084870802</v>
+      </c>
+      <c r="C234">
+        <v>29.108771929824499</v>
+      </c>
+      <c r="D234" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E234">
+        <v>2011</v>
+      </c>
+      <c r="F234" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A235">
+        <v>1</v>
+      </c>
+      <c r="B235">
+        <v>570.11070110701098</v>
+      </c>
+      <c r="C235">
+        <v>35.957894736842</v>
+      </c>
+      <c r="D235" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E235">
+        <v>2011</v>
+      </c>
+      <c r="F235" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A236">
+        <v>1</v>
+      </c>
+      <c r="B236">
+        <v>846.863468634686</v>
+      </c>
+      <c r="C236">
+        <v>48.371929824561299</v>
+      </c>
+      <c r="D236" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E236">
+        <v>2011</v>
+      </c>
+      <c r="F236" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A237">
+        <v>1</v>
+      </c>
+      <c r="B237">
+        <v>869.00369003690003</v>
+      </c>
+      <c r="C237">
+        <v>62.070175438596401</v>
+      </c>
+      <c r="D237" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E237">
+        <v>2011</v>
+      </c>
+      <c r="F237" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A238">
+        <v>1</v>
+      </c>
+      <c r="B238">
+        <v>1173.43173431734</v>
+      </c>
+      <c r="C238">
+        <v>77.480701754385905</v>
+      </c>
+      <c r="D238" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E238">
+        <v>2011</v>
+      </c>
+      <c r="F238" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A239">
+        <v>1</v>
+      </c>
+      <c r="B239">
+        <v>852.39852398523999</v>
+      </c>
+      <c r="C239">
+        <v>89.466666666666598</v>
+      </c>
+      <c r="D239" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E239">
+        <v>2011</v>
+      </c>
+      <c r="F239" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A240">
+        <v>1</v>
+      </c>
+      <c r="B240">
+        <v>387.45387453874503</v>
+      </c>
+      <c r="C240">
+        <v>104.87719298245599</v>
+      </c>
+      <c r="D240" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E240">
+        <v>2011</v>
+      </c>
+      <c r="F240" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A241">
+        <v>1</v>
+      </c>
+      <c r="B241">
+        <v>343.17343173431698</v>
+      </c>
+      <c r="C241">
+        <v>120.715789473684</v>
+      </c>
+      <c r="D241" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E241">
+        <v>2011</v>
+      </c>
+      <c r="F241" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -661,19 +5377,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="109.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.26953125" customWidth="1"/>
+    <col min="2" max="2" width="109.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -684,19 +5400,88 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{AF61101D-8904-46F6-BC9D-42A65E14670C}"/>
+    <hyperlink ref="C5" r:id="rId2" xr:uid="{5D979AD5-039E-43FC-84F6-ACD67A4C10D9}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{D8647225-0528-4E80-8B7B-B193EC0CF765}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>